--- a/Customer Database.xlsx
+++ b/Customer Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ps-fbzznf3\Lab\Lab recovery\Recreational Water\Final Reports\BacReportWebsite\BacteriologicalReports.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F412D697-3703-489B-96AB-78A16FB62162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D736134F-1B98-4132-B1FD-0FE8EC2CDD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DavidSheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="3255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3565" uniqueCount="3290">
   <si>
     <t>C-VI096</t>
   </si>
@@ -9801,13 +9801,118 @@
   </si>
   <si>
     <t>C-VI131</t>
+  </si>
+  <si>
+    <t>Brooks @ River's Edge</t>
+  </si>
+  <si>
+    <t>Brooks @ River's Edge|Pool</t>
+  </si>
+  <si>
+    <t>C-SA105</t>
+  </si>
+  <si>
+    <t>Saltsburg</t>
+  </si>
+  <si>
+    <t>Saltsburg|Pool</t>
+  </si>
+  <si>
+    <t>Saltsburg|Spray Pool</t>
+  </si>
+  <si>
+    <t>C-FR120</t>
+  </si>
+  <si>
+    <t>Franklin Ridge Estates</t>
+  </si>
+  <si>
+    <t>Franklin Ridge|Pool-Deep End</t>
+  </si>
+  <si>
+    <t>Franklin Ridge|Pool-Shallow End</t>
+  </si>
+  <si>
+    <t>Franklin Ridge|Baby Pool</t>
+  </si>
+  <si>
+    <t>C-IN160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingomar Swim Club </t>
+  </si>
+  <si>
+    <t>Ingomar Swim Club|Pool-Deep End</t>
+  </si>
+  <si>
+    <t>Ingomar Swim Club|Pool-Shallow End</t>
+  </si>
+  <si>
+    <t>Ingomar Swim Club|Baby Pool</t>
+  </si>
+  <si>
+    <t>C-WI155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windwood Park </t>
+  </si>
+  <si>
+    <t>Windwood|Pool-Deep End</t>
+  </si>
+  <si>
+    <t>Windwood|Pool-Shallow End</t>
+  </si>
+  <si>
+    <t>Windwood|Slide Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside High School </t>
+  </si>
+  <si>
+    <t>Riverside H.S.|Pool</t>
+  </si>
+  <si>
+    <t>C-YM210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YMCA - Schneider </t>
+  </si>
+  <si>
+    <t>YMCA - Schneider|Pool</t>
+  </si>
+  <si>
+    <t>YMCA - Schneider|Small Pool</t>
+  </si>
+  <si>
+    <t>YMCA - Schneider|Spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurel Grove </t>
+  </si>
+  <si>
+    <t>Laurel Grove|Pool</t>
+  </si>
+  <si>
+    <t>C-WI125</t>
+  </si>
+  <si>
+    <t>Wildwood British Swim School</t>
+  </si>
+  <si>
+    <t>Wildwood British|Pool</t>
+  </si>
+  <si>
+    <t>Ditheridge House</t>
+  </si>
+  <si>
+    <t>Ditheridge House|Pool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9821,8 +9926,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9841,6 +9957,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -9851,19 +9973,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8165A4B0-7ED2-4B27-BEAF-5A1105EF731C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -10163,10 +10299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1380"/>
+  <dimension ref="A1:P1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A1371" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1400" sqref="A1400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14837,7 +14973,7 @@
     </row>
     <row r="497" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>1096</v>
@@ -23533,6 +23669,219 @@
         <v>3229</v>
       </c>
     </row>
+    <row r="1381" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1381" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1381" s="5">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1382" s="4" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B1382" s="4" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1383" s="7" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B1383" s="6">
+        <v>2790</v>
+      </c>
+      <c r="C1383" s="6">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1385" s="4" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B1385" s="5">
+        <v>2782</v>
+      </c>
+      <c r="C1385" s="5">
+        <v>2783</v>
+      </c>
+      <c r="D1385" s="5">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1386" s="4" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B1386" s="4" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C1386" s="4" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D1386" s="4" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B1387" s="6">
+        <v>2288</v>
+      </c>
+      <c r="C1387" s="6">
+        <v>2289</v>
+      </c>
+      <c r="D1387" s="6">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1389" s="4" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B1389" s="5">
+        <v>2793</v>
+      </c>
+      <c r="C1389" s="5">
+        <v>2794</v>
+      </c>
+      <c r="D1389" s="5">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1390" s="4" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B1390" s="4" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C1390" s="4" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D1390" s="4" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1391" s="6">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1393" s="4" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1393" s="5">
+        <v>482</v>
+      </c>
+      <c r="C1393" s="5">
+        <v>483</v>
+      </c>
+      <c r="D1393" s="5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1394" s="4" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B1394" s="4" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C1394" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D1394" s="4" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1395" s="6">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1397" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B1397" s="5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1398" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1398" s="4" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1399" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1399" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1400" s="8" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B1400" s="8" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1402" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Customer Database.xlsx
+++ b/Customer Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ps-fbzznf3\Lab\Lab recovery\Recreational Water\Final Reports\BacReportWebsite\BacteriologicalReports.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D736134F-1B98-4132-B1FD-0FE8EC2CDD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6D07C-1F35-4544-B172-F4B53315C3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3565" uniqueCount="3290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="3291">
   <si>
     <t>C-VI096</t>
   </si>
@@ -9906,6 +9906,9 @@
   </si>
   <si>
     <t>Ditheridge House|Pool</t>
+  </si>
+  <si>
+    <t>C-RI195</t>
   </si>
 </sst>
 </file>
@@ -9977,7 +9980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -9993,9 +9996,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10301,8 +10301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1371" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1400" sqref="A1400"/>
+    <sheetView tabSelected="1" topLeftCell="A1361" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1402" sqref="B1402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23792,6 +23792,9 @@
       </c>
     </row>
     <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1391" s="8" t="s">
+        <v>3290</v>
+      </c>
       <c r="B1391" s="6">
         <v>505</v>
       </c>
@@ -23864,19 +23867,19 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="1399" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1399" s="8" t="s">
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
         <v>202</v>
       </c>
-      <c r="B1399" s="9">
+      <c r="B1399" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="1400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1400" s="8" t="s">
+      <c r="A1400" t="s">
         <v>3288</v>
       </c>
-      <c r="B1400" s="8" t="s">
+      <c r="B1400" t="s">
         <v>3289</v>
       </c>
     </row>

--- a/Customer Database.xlsx
+++ b/Customer Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ps-fbzznf3\Lab\Lab recovery\Recreational Water\Final Reports\BacReportWebsite\BacteriologicalReports.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6D07C-1F35-4544-B172-F4B53315C3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A272A496-56F8-4B15-9631-E5AC1E0D0028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="3291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="3293">
   <si>
     <t>C-VI096</t>
   </si>
@@ -9909,13 +9909,19 @@
   </si>
   <si>
     <t>C-RI195</t>
+  </si>
+  <si>
+    <t>C-CO140</t>
+  </si>
+  <si>
+    <t>Comfort Inn -  Connellsville</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9939,6 +9945,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -9980,7 +9991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -9995,7 +10006,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10301,8 +10317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1361" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1402" sqref="B1402"/>
+    <sheetView tabSelected="1" topLeftCell="A1369" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A1409" sqref="A1409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23792,7 +23808,7 @@
       </c>
     </row>
     <row r="1391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1391" s="8" t="s">
+      <c r="A1391" t="s">
         <v>3290</v>
       </c>
       <c r="B1391" s="6">
@@ -23883,8 +23899,22 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="1401" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="1402" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1401" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1401" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B1401" s="9">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1402" s="8" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B1402" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Customer Database.xlsx
+++ b/Customer Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ps-fbzznf3\Lab\Lab recovery\Recreational Water\Final Reports\BacReportWebsite\BacteriologicalReports.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A272A496-56F8-4B15-9631-E5AC1E0D0028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E032EDC4-ADE5-4804-9379-C22253062382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DavidSheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="3293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3577" uniqueCount="3299">
   <si>
     <t>C-VI096</t>
   </si>
@@ -9915,6 +9915,24 @@
   </si>
   <si>
     <t>Comfort Inn -  Connellsville</t>
+  </si>
+  <si>
+    <t>T-AQ110</t>
+  </si>
+  <si>
+    <t>Aqua Pools</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>T-SP130</t>
+  </si>
+  <si>
+    <t>Specialty Pools</t>
   </si>
 </sst>
 </file>
@@ -9991,7 +10009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -10010,6 +10028,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -10315,10 +10336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1402"/>
+  <dimension ref="A1:P1406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1369" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A1409" sqref="A1409"/>
+    <sheetView tabSelected="1" topLeftCell="A1378" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C1400" sqref="C1400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23915,6 +23936,50 @@
         <v>554</v>
       </c>
     </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B1403" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C1403" s="10">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1405" s="4" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B1405" s="9">
+        <v>5010</v>
+      </c>
+      <c r="C1405" s="9">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1406" s="4" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B1406" s="4" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C1406" s="4" t="s">
+        <v>3296</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Customer Database.xlsx
+++ b/Customer Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ps-fbzznf3\Lab\Lab recovery\Recreational Water\Final Reports\BacReportWebsite\BacteriologicalReports.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE1EB4-7139-43B7-BD9B-A3137C2D1A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBDC1B8-4BB0-4853-AF27-18A6135165AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3587" uniqueCount="3306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="3310">
   <si>
     <t>C-VI096</t>
   </si>
@@ -9954,6 +9954,18 @@
   </si>
   <si>
     <t>271</t>
+  </si>
+  <si>
+    <t>C-PA125</t>
+  </si>
+  <si>
+    <t>Sure Stay</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>Sure Stay | Pool</t>
   </si>
 </sst>
 </file>
@@ -10362,10 +10374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1410"/>
+  <dimension ref="A1:P1412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1030" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1050" sqref="C1050"/>
+    <sheetView tabSelected="1" topLeftCell="A1360" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1415" sqref="B1415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24046,6 +24058,22 @@
         <v>1133</v>
       </c>
     </row>
+    <row r="1411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B1411" s="11" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>3309</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
